--- a/src/afk.xlsx
+++ b/src/afk.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC233C-CB1D-4B60-A3C5-1A855BDEB2D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB68AB-4039-4B3B-9841-491D591F2E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,6 +78,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -377,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -437,10 +446,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -451,10 +460,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -465,10 +474,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -479,10 +488,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -493,10 +502,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -507,10 +516,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,10 +530,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -535,10 +544,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -549,10 +558,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -563,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -577,10 +586,10 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -591,10 +600,10 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -605,10 +614,10 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -619,10 +628,10 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -633,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -647,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -661,10 +670,10 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -675,10 +684,10 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -689,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -703,10 +712,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -717,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -731,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -745,10 +754,10 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -759,10 +768,10 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,10 +782,10 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -787,10 +796,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -801,10 +810,10 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -815,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -829,10 +838,10 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -843,10 +852,10 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -857,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -871,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -885,10 +894,10 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -899,10 +908,10 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -913,10 +922,10 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -927,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -941,10 +950,10 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="D40">
-        <v>37</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -955,10 +964,10 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D41">
-        <v>38</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -969,10 +978,10 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -983,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -997,10 +1006,10 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1011,10 +1020,10 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="D45">
-        <v>42</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1025,10 +1034,10 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="D46">
-        <v>43</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1039,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="D47">
-        <v>44</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1053,10 +1062,10 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1067,10 +1076,10 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="D49">
-        <v>46</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1081,10 +1090,10 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="D50">
-        <v>47</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1095,10 +1104,10 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="D51">
-        <v>48</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1109,10 +1118,10 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="D52">
-        <v>49</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1123,10 +1132,10 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="D53">
-        <v>50</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1137,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="D54">
-        <v>51</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1151,10 +1160,10 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="D55">
-        <v>52</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1165,10 +1174,10 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="D56">
-        <v>53</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1179,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="D57">
-        <v>54</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1193,10 +1202,10 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="D58">
-        <v>55</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1207,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="D59">
-        <v>56</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1221,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="D60">
-        <v>57</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1235,10 +1244,10 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="D61">
-        <v>58</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1249,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="D62">
-        <v>59</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1263,10 +1272,10 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>282</v>
       </c>
       <c r="D63">
-        <v>60</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1277,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="D64">
-        <v>61</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1291,10 +1300,10 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="D65">
-        <v>62</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1305,10 +1314,10 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>65</v>
+        <v>315</v>
       </c>
       <c r="D66">
-        <v>63</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1319,10 +1328,10 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="D67">
-        <v>64</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1333,10 +1342,10 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="D68">
-        <v>65</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1347,10 +1356,10 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>351</v>
       </c>
       <c r="D69">
-        <v>66</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1361,10 +1370,10 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>363</v>
       </c>
       <c r="D70">
-        <v>67</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1375,10 +1384,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="D71">
-        <v>68</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1389,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>71</v>
+        <v>387</v>
       </c>
       <c r="D72">
-        <v>69</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1403,10 +1412,10 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>399</v>
       </c>
       <c r="D73">
-        <v>70</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1417,10 +1426,10 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>73</v>
+        <v>411</v>
       </c>
       <c r="D74">
-        <v>71</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1431,10 +1440,10 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="D75">
-        <v>72</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1445,10 +1454,10 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>435</v>
       </c>
       <c r="D76">
-        <v>73</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,10 +1468,10 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>76</v>
+        <v>447</v>
       </c>
       <c r="D77">
-        <v>74</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1473,10 +1482,10 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="D78">
-        <v>75</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1487,10 +1496,10 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="D79">
-        <v>76</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1501,10 +1510,10 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="D80">
-        <v>77</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1515,10 +1524,10 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="D81">
-        <v>78</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1529,10 +1538,10 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="D82">
-        <v>79</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1543,10 +1552,10 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="D83">
-        <v>80</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1557,10 +1566,10 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>83</v>
+        <v>531</v>
       </c>
       <c r="D84">
-        <v>81</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1571,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>84</v>
+        <v>543</v>
       </c>
       <c r="D85">
-        <v>82</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1585,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>85</v>
+        <v>555</v>
       </c>
       <c r="D86">
-        <v>83</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1599,10 +1608,10 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>86</v>
+        <v>567</v>
       </c>
       <c r="D87">
-        <v>84</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1613,10 +1622,10 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>87</v>
+        <v>579</v>
       </c>
       <c r="D88">
-        <v>85</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1627,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>88</v>
+        <v>591</v>
       </c>
       <c r="D89">
-        <v>86</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1641,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>89</v>
+        <v>603</v>
       </c>
       <c r="D90">
-        <v>87</v>
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -1655,10 +1664,10 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>90</v>
+        <v>615</v>
       </c>
       <c r="D91">
-        <v>88</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -1669,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>627</v>
       </c>
       <c r="D92">
-        <v>89</v>
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1683,10 +1692,10 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>92</v>
+        <v>639</v>
       </c>
       <c r="D93">
-        <v>90</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1697,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>93</v>
+        <v>657</v>
       </c>
       <c r="D94">
-        <v>91</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -1711,10 +1720,10 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>94</v>
+        <v>675</v>
       </c>
       <c r="D95">
-        <v>92</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -1725,10 +1734,10 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>95</v>
+        <v>693</v>
       </c>
       <c r="D96">
-        <v>93</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1739,10 +1748,10 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>96</v>
+        <v>711</v>
       </c>
       <c r="D97">
-        <v>94</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1753,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>97</v>
+        <v>729</v>
       </c>
       <c r="D98">
-        <v>95</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1767,10 +1776,10 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>98</v>
+        <v>747</v>
       </c>
       <c r="D99">
-        <v>96</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -1781,10 +1790,10 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>99</v>
+        <v>765</v>
       </c>
       <c r="D100">
-        <v>97</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -1795,10 +1804,10 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>100</v>
+        <v>783</v>
       </c>
       <c r="D101">
-        <v>98</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -1809,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>101</v>
+        <v>801</v>
       </c>
       <c r="D102">
-        <v>99</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1823,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>102</v>
+        <v>820</v>
       </c>
       <c r="D103">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1837,6 +1846,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1844,69 +1857,65 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/afk.xlsx
+++ b/src/afk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB68AB-4039-4B3B-9841-491D591F2E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D874745E-0D02-4AF4-B453-276204A63411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -446,10 +446,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -460,10 +460,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -474,10 +474,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -488,10 +488,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -502,10 +502,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -516,10 +516,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -530,10 +530,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -544,10 +544,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -558,10 +558,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -572,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -586,10 +586,10 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -600,10 +600,10 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -614,10 +614,10 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -628,10 +628,10 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -656,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,10 +670,10 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -684,10 +684,10 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D21">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -698,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -712,10 +712,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -726,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D24">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -740,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -754,10 +754,10 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D26">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -768,10 +768,10 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D27">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -782,10 +782,10 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D28">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D29">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -810,10 +810,10 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D30">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -824,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D31">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -838,10 +838,10 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D32">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -852,10 +852,10 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D33">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>108</v>
       </c>
       <c r="D34">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
         <v>114</v>
       </c>
       <c r="D35">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -897,7 +897,7 @@
         <v>120</v>
       </c>
       <c r="D36">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -911,7 +911,7 @@
         <v>126</v>
       </c>
       <c r="D37">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>132</v>
       </c>
       <c r="D38">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,7 +939,7 @@
         <v>138</v>
       </c>
       <c r="D39">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>144</v>
       </c>
       <c r="D40">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -967,7 +967,7 @@
         <v>150</v>
       </c>
       <c r="D41">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -981,7 +981,7 @@
         <v>156</v>
       </c>
       <c r="D42">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>162</v>
       </c>
       <c r="D43">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1023,7 +1023,7 @@
         <v>174</v>
       </c>
       <c r="D45">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
         <v>180</v>
       </c>
       <c r="D46">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>186</v>
       </c>
       <c r="D47">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>192</v>
       </c>
       <c r="D48">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1079,7 +1079,7 @@
         <v>198</v>
       </c>
       <c r="D49">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
         <v>204</v>
       </c>
       <c r="D50">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1107,7 +1107,7 @@
         <v>210</v>
       </c>
       <c r="D51">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
         <v>216</v>
       </c>
       <c r="D52">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>222</v>
       </c>
       <c r="D53">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>228</v>
       </c>
       <c r="D54">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1163,7 +1163,7 @@
         <v>234</v>
       </c>
       <c r="D55">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
         <v>240</v>
       </c>
       <c r="D56">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1191,7 +1191,7 @@
         <v>246</v>
       </c>
       <c r="D57">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
         <v>252</v>
       </c>
       <c r="D58">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>258</v>
       </c>
       <c r="D59">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1233,7 +1233,7 @@
         <v>264</v>
       </c>
       <c r="D60">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
         <v>270</v>
       </c>
       <c r="D61">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1261,7 +1261,7 @@
         <v>276</v>
       </c>
       <c r="D62">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1275,7 +1275,7 @@
         <v>282</v>
       </c>
       <c r="D63">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
         <v>291</v>
       </c>
       <c r="D64">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
         <v>303</v>
       </c>
       <c r="D65">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
         <v>315</v>
       </c>
       <c r="D66">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1331,7 +1331,7 @@
         <v>327</v>
       </c>
       <c r="D67">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1345,7 +1345,7 @@
         <v>339</v>
       </c>
       <c r="D68">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>351</v>
       </c>
       <c r="D69">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
         <v>363</v>
       </c>
       <c r="D70">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1387,7 +1387,7 @@
         <v>375</v>
       </c>
       <c r="D71">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1401,7 +1401,7 @@
         <v>387</v>
       </c>
       <c r="D72">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1415,7 +1415,7 @@
         <v>399</v>
       </c>
       <c r="D73">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1429,7 +1429,7 @@
         <v>411</v>
       </c>
       <c r="D74">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1443,7 +1443,7 @@
         <v>423</v>
       </c>
       <c r="D75">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>435</v>
       </c>
       <c r="D76">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1471,7 +1471,7 @@
         <v>447</v>
       </c>
       <c r="D77">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,7 +1485,7 @@
         <v>459</v>
       </c>
       <c r="D78">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1499,7 +1499,7 @@
         <v>471</v>
       </c>
       <c r="D79">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1513,7 +1513,7 @@
         <v>483</v>
       </c>
       <c r="D80">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1527,7 +1527,7 @@
         <v>495</v>
       </c>
       <c r="D81">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1541,7 +1541,7 @@
         <v>507</v>
       </c>
       <c r="D82">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1858,16 +1860,14 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1878,14 +1878,14 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1897,13 +1897,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1915,7 +1915,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>